--- a/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
+++ b/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floresjimenezrh\Desktop\CCDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NCI-CBIIT-FNLCCDI/Shared Documents/CCDC (Data Catalog nee PODCat)/2-Executing/System Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD8EDA-8D16-48B6-ABF1-40CB9C71B357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF574EF1-14DE-4A74-958B-E0327342A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Resource Digest Submission" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Digest 1'!$A$1:$H$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Digest 1'!$A$1:$H$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Glossary!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="220">
   <si>
     <t>Data Catalog Submission 
 Template Version Number</t>
@@ -162,15 +162,12 @@
     <t>Case Age at Diagnosis</t>
   </si>
   <si>
-    <t>0 years</t>
+    <t>0 to 4 years</t>
   </si>
   <si>
     <t>Count</t>
   </si>
   <si>
-    <t>1 to 4 years</t>
-  </si>
-  <si>
     <t>5 to 9 years</t>
   </si>
   <si>
@@ -627,7 +624,10 @@
     <t>A cancer registry is an information system designed for the collection, storage, and management of data on persons with cancer. An inventory of individuals or samples, usually focused on a specific diagnosis or condition. In some cases, public health laws require collecting information in registries about individuals who have a specific disease or condition. In other cases, individuals provide information about themselves to these registries voluntarily. Thus, a registry contains Individual Clinical Data, but not Individual Research Data.</t>
   </si>
   <si>
-    <t>Biomedical data repositories accept submission of relevant data from the community to store, organize, validate, archive, preserve and distribute the data, in compliance with the FAIR Data Principles.  A system for storing multiple research artifacts, provided at least some of the research artifacts contain Individual Research Data. A data repository often contains artifacts from multiple studies. Some data repositories accept research datasets irrespective of the structure of those datasets; other data repositories require all research datasets to conform to a standard reference model.</t>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Biomedical data repositories store, organize, validate, archive, preserve, and distribute data, in compliance with the FAIR Data Principles. It is a system for storing multiple research artifacts, provided at least some of the research artifacts contain Individual Research Data. A data repository often contains artifacts from multiple studies. Some data repositories accept research datasets irrespective of the structure of those datasets; other data repositories require all research datasets to conform to a standard reference model.</t>
   </si>
   <si>
     <t>One, some, every, or all without specification. This term means that the statistic value applies to the set of all values in the digest partition for the data element summarized.</t>
@@ -703,16 +703,13 @@
   </si>
   <si>
     <t>Cell Lines</t>
-  </si>
-  <si>
-    <t>Repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,15 +960,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1311,52 +1310,52 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="46.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="30.95" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="46"/>
     </row>
-    <row r="4" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="61.5" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
     </row>
-    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" ht="21">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="30" customHeight="1">
       <c r="A9" s="34" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="32" customFormat="1">
       <c r="A10" s="30"/>
       <c r="B10" s="10"/>
       <c r="C10" s="12"/>
@@ -1393,7 +1392,7 @@
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
@@ -1407,12 +1406,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="18.600000000000001">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="30.95">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="102.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1456,27 +1455,27 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.6">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="36"/>
       <c r="B18" s="11"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="C21" s="6"/>
     </row>
   </sheetData>
@@ -1541,18 +1540,18 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="46.5">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1592,7 +1591,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="6"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1611,26 +1610,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6345C2C9-50CB-4147-9B64-4738C772C675}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H393"/>
+  <dimension ref="A1:H392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="26">
         <v>1</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="26">
         <v>1</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="26">
         <v>1</v>
       </c>
@@ -1863,44 +1862,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="27">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="28">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
-        <v>1</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
@@ -1909,7 +1908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="26">
         <v>1</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1932,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="26">
         <v>1</v>
       </c>
@@ -1946,53 +1945,53 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
-        <v>1</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26">
+        <v>1</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
-      <c r="D16" s="28">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
@@ -2001,7 +2000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="26">
         <v>1</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
@@ -2024,7 +2023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="26">
         <v>1</v>
       </c>
@@ -2038,30 +2037,30 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26">
+        <v>1</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
-        <v>1</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0</v>
-      </c>
-      <c r="C19" s="22">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -2070,7 +2069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="26">
         <v>1</v>
       </c>
@@ -2084,39 +2083,39 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26">
+        <v>1</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="26">
-        <v>1</v>
-      </c>
-      <c r="B21" s="22">
-        <v>0</v>
-      </c>
-      <c r="C21" s="22">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
       <c r="G21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="26">
         <v>1</v>
       </c>
@@ -2130,16 +2129,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" t="s">
         <v>60</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="26">
         <v>1</v>
       </c>
@@ -2153,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
       <c r="G23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="26">
         <v>1</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
         <v>64</v>
@@ -2185,7 +2184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="26">
         <v>1</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>65</v>
@@ -2208,7 +2207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="26">
         <v>1</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
         <v>66</v>
@@ -2231,7 +2230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="26">
         <v>1</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>67</v>
@@ -2254,7 +2253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="26">
         <v>1</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>68</v>
@@ -2277,7 +2276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="26">
         <v>1</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
         <v>69</v>
@@ -2300,7 +2299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="26">
         <v>1</v>
       </c>
@@ -2314,62 +2313,62 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26">
+        <v>1</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="27">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="26">
-        <v>1</v>
-      </c>
-      <c r="B31" s="22">
-        <v>0</v>
-      </c>
-      <c r="C31" s="22">
-        <v>1</v>
-      </c>
-      <c r="D31" s="28">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="26">
-        <v>1</v>
-      </c>
-      <c r="B32" s="22">
-        <v>0</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="28">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="26">
         <v>1</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
         <v>72</v>
@@ -2392,7 +2391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="26">
         <v>1</v>
       </c>
@@ -2406,62 +2405,62 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26">
+        <v>1</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="26">
+        <v>1</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
+        <v>1</v>
+      </c>
+      <c r="D36" s="27">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>73</v>
       </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="26">
-        <v>1</v>
-      </c>
-      <c r="B35" s="22">
-        <v>0</v>
-      </c>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="26">
-        <v>1</v>
-      </c>
-      <c r="B36" s="22">
-        <v>0</v>
-      </c>
-      <c r="C36" s="22">
-        <v>1</v>
-      </c>
-      <c r="D36" s="27">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="26">
         <v>1</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
         <v>75</v>
@@ -2484,7 +2483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="26">
         <v>1</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>76</v>
@@ -2507,7 +2506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="26">
         <v>1</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
         <v>77</v>
@@ -2530,7 +2529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="26">
         <v>1</v>
       </c>
@@ -2540,11 +2539,11 @@
       <c r="C40" s="22">
         <v>1</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="29">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
         <v>78</v>
@@ -2553,7 +2552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="26">
         <v>1</v>
       </c>
@@ -2563,11 +2562,11 @@
       <c r="C41" s="22">
         <v>1</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="27">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
         <v>79</v>
@@ -2576,7 +2575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="26">
         <v>1</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
         <v>80</v>
@@ -2599,7 +2598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="26">
         <v>1</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
         <v>81</v>
@@ -2622,7 +2621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="26">
         <v>1</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s">
         <v>82</v>
@@ -2645,7 +2644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="26">
         <v>1</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s">
         <v>83</v>
@@ -2668,7 +2667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="26">
         <v>1</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
         <v>84</v>
@@ -2691,7 +2690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="26">
         <v>1</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
         <v>85</v>
@@ -2714,7 +2713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="26">
         <v>1</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
         <v>86</v>
@@ -2737,7 +2736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="26">
         <v>1</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
         <v>87</v>
@@ -2760,7 +2759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="26">
         <v>1</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>
@@ -2783,7 +2782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="26">
         <v>1</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
         <v>89</v>
@@ -2806,7 +2805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="26">
         <v>1</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s">
         <v>90</v>
@@ -2829,7 +2828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="26">
         <v>1</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
         <v>91</v>
@@ -2852,7 +2851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="26">
         <v>1</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s">
         <v>92</v>
@@ -2875,7 +2874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="26">
         <v>1</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
         <v>93</v>
@@ -2898,7 +2897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="26">
         <v>1</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
         <v>94</v>
@@ -2921,7 +2920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="26">
         <v>1</v>
       </c>
@@ -2935,39 +2934,39 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="26">
+        <v>1</v>
+      </c>
+      <c r="B58" s="22">
+        <v>0</v>
+      </c>
+      <c r="C58" s="22">
+        <v>1</v>
+      </c>
+      <c r="D58" s="27">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s">
         <v>95</v>
       </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="26">
-        <v>1</v>
-      </c>
-      <c r="B58" s="22">
-        <v>0</v>
-      </c>
-      <c r="C58" s="22">
-        <v>1</v>
-      </c>
-      <c r="D58" s="27">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s">
-        <v>49</v>
-      </c>
       <c r="G58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s">
         <v>96</v>
@@ -2990,7 +2989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
         <v>97</v>
@@ -3013,7 +3012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -3027,39 +3026,39 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="26">
+        <v>1</v>
+      </c>
+      <c r="B62" s="22">
+        <v>0</v>
+      </c>
+      <c r="C62" s="22">
+        <v>1</v>
+      </c>
+      <c r="D62" s="27">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s">
         <v>98</v>
       </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="26">
-        <v>1</v>
-      </c>
-      <c r="B62" s="22">
-        <v>0</v>
-      </c>
-      <c r="C62" s="22">
-        <v>1</v>
-      </c>
-      <c r="D62" s="27">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s">
-        <v>70</v>
-      </c>
       <c r="G62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63" s="26">
         <v>1</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" t="s">
         <v>99</v>
@@ -3082,7 +3081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" s="26">
         <v>1</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
         <v>100</v>
@@ -3105,7 +3104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" s="26">
         <v>1</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
         <v>101</v>
@@ -3128,7 +3127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" s="26">
         <v>1</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
         <v>102</v>
@@ -3151,7 +3150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" s="26">
         <v>1</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
         <v>103</v>
@@ -3174,7 +3173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68" s="26">
         <v>1</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
         <v>104</v>
@@ -3197,7 +3196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" s="26">
         <v>1</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
         <v>105</v>
@@ -3220,7 +3219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="26">
         <v>1</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F70" t="s">
         <v>106</v>
@@ -3243,7 +3242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="26">
         <v>1</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F71" t="s">
         <v>107</v>
@@ -3266,7 +3265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="26">
         <v>1</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
         <v>108</v>
@@ -3289,7 +3288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" s="26">
         <v>1</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
         <v>109</v>
@@ -3312,7 +3311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" s="26">
         <v>1</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F74" t="s">
         <v>110</v>
@@ -3335,7 +3334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75" s="26">
         <v>1</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
         <v>111</v>
@@ -3358,7 +3357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76" s="26">
         <v>1</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
         <v>112</v>
@@ -3381,7 +3380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77" s="26">
         <v>1</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
         <v>113</v>
@@ -3404,7 +3403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78" s="26">
         <v>1</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F78" t="s">
         <v>114</v>
@@ -3427,7 +3426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79" s="26">
         <v>1</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -3450,7 +3449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80" s="26">
         <v>1</v>
       </c>
@@ -3464,39 +3463,39 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F80" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="26">
+        <v>1</v>
+      </c>
+      <c r="B81" s="22">
+        <v>0</v>
+      </c>
+      <c r="C81" s="22">
+        <v>1</v>
+      </c>
+      <c r="D81" s="27">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s">
         <v>116</v>
       </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="26">
-        <v>1</v>
-      </c>
-      <c r="B81" s="22">
-        <v>0</v>
-      </c>
-      <c r="C81" s="22">
-        <v>1</v>
-      </c>
-      <c r="D81" s="27">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" t="s">
-        <v>60</v>
-      </c>
       <c r="G81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82" s="26">
         <v>1</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
         <v>117</v>
@@ -3519,7 +3518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83" s="26">
         <v>1</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F83" t="s">
         <v>118</v>
@@ -3542,7 +3541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84" s="26">
         <v>1</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F84" t="s">
         <v>119</v>
@@ -3565,985 +3564,962 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="26">
-        <v>1</v>
-      </c>
-      <c r="B85" s="22">
-        <v>0</v>
-      </c>
-      <c r="C85" s="22">
-        <v>1</v>
-      </c>
-      <c r="D85" s="27">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" t="s">
-        <v>120</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85" s="27"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86" s="27"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87" s="27"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88" s="27"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89" s="27"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90" s="27"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91" s="27"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4">
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98" s="27"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B99"/>
-      <c r="C99"/>
+    <row r="99" spans="2:4">
       <c r="D99" s="27"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4">
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4">
       <c r="D101" s="27"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4">
       <c r="D102" s="27"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4">
       <c r="D103" s="27"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4">
       <c r="D104" s="27"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4">
       <c r="D105" s="27"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4">
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4">
       <c r="D107" s="27"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4">
       <c r="D108" s="27"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4">
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4">
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4">
       <c r="D111" s="27"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4">
       <c r="D112" s="27"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:4">
       <c r="D113" s="27"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:4">
       <c r="D114" s="27"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:4">
       <c r="D115" s="27"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:4">
       <c r="D116" s="27"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:4">
       <c r="D117" s="27"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:4">
       <c r="D118" s="27"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4">
       <c r="D119" s="27"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4">
       <c r="D120" s="27"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:4">
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:4">
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4">
       <c r="D123" s="27"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4">
       <c r="D124" s="27"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:4">
       <c r="D125" s="27"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:4">
       <c r="D126" s="27"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:4">
       <c r="D127" s="27"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:4">
       <c r="D128" s="27"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:4">
       <c r="D129" s="27"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:4">
       <c r="D130" s="27"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:4">
       <c r="D131" s="27"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:4">
       <c r="D132" s="27"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:4">
       <c r="D133" s="27"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:4">
       <c r="D134" s="27"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:4">
       <c r="D135" s="27"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:4">
       <c r="D136" s="27"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:4">
       <c r="D137" s="27"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:4">
       <c r="D138" s="27"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:4">
       <c r="D139" s="27"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:4">
       <c r="D140" s="27"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:4">
       <c r="D141" s="27"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:4">
       <c r="D142" s="27"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:4">
       <c r="D143" s="27"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:4">
       <c r="D144" s="27"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:4">
       <c r="D145" s="27"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:4">
       <c r="D146" s="27"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:4">
       <c r="D147" s="27"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:4">
       <c r="D148" s="27"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:4">
       <c r="D149" s="27"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:4">
       <c r="D150" s="27"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:4">
       <c r="D151" s="27"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:4">
       <c r="D152" s="27"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:4">
       <c r="D153" s="27"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:4">
       <c r="D154" s="27"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:4">
       <c r="D155" s="27"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:4">
       <c r="D156" s="27"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:4">
       <c r="D157" s="27"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:4">
       <c r="D158" s="27"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:4">
       <c r="D159" s="27"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:4">
       <c r="D160" s="27"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:4">
       <c r="D161" s="27"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:4">
       <c r="D162" s="27"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:4">
       <c r="D163" s="27"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:4">
       <c r="D164" s="27"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:4">
       <c r="D165" s="27"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:4">
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:4">
       <c r="D167" s="27"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:4">
       <c r="D168" s="27"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:4">
       <c r="D169" s="27"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:4">
       <c r="D170" s="27"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:4">
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:4">
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:4">
       <c r="D173" s="27"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:4">
       <c r="D174" s="27"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:4">
       <c r="D175" s="27"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:4">
       <c r="D176" s="27"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:4">
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:4">
       <c r="D178" s="27"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:4">
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:4">
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:4">
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:4">
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:4">
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:4">
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:4">
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:4">
       <c r="D186" s="27"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:4">
       <c r="D187" s="27"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:4">
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:4">
       <c r="D189" s="27"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:4">
       <c r="D190" s="27"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:4">
       <c r="D191" s="27"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:4">
       <c r="D192" s="27"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:4">
       <c r="D193" s="27"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:4">
       <c r="D194" s="27"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:4">
       <c r="D195" s="27"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:4">
       <c r="D196" s="27"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:4">
       <c r="D197" s="27"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:4">
       <c r="D198" s="27"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:4">
       <c r="D199" s="27"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:4">
       <c r="D200" s="27"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:4">
       <c r="D201" s="27"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:4">
       <c r="D202" s="27"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:4">
       <c r="D203" s="27"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:4">
       <c r="D204" s="27"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:4">
       <c r="D205" s="27"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:4">
       <c r="D206" s="27"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:4">
       <c r="D207" s="27"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:4">
       <c r="D208" s="27"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:4">
       <c r="D209" s="27"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:4">
       <c r="D210" s="27"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:4">
       <c r="D211" s="27"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:4">
       <c r="D212" s="27"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:4">
       <c r="D213" s="27"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:4">
       <c r="D214" s="27"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:4">
       <c r="D215" s="27"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:4">
       <c r="D216" s="27"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:4">
       <c r="D217" s="27"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:4">
       <c r="D218" s="27"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:4">
       <c r="D219" s="27"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:4">
       <c r="D220" s="27"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:4">
       <c r="D221" s="27"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:4">
       <c r="D222" s="27"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:4">
       <c r="D223" s="27"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:4">
       <c r="D224" s="27"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:4">
       <c r="D225" s="27"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:4">
       <c r="D226" s="27"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:4">
       <c r="D227" s="27"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:4">
       <c r="D228" s="27"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:4">
       <c r="D229" s="27"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:4">
       <c r="D230" s="27"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:4">
       <c r="D231" s="27"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:4">
       <c r="D232" s="27"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:4">
       <c r="D233" s="27"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:4">
       <c r="D234" s="27"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:4">
       <c r="D235" s="27"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:4">
       <c r="D236" s="27"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:4">
       <c r="D237" s="27"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:4">
       <c r="D238" s="27"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:4">
       <c r="D239" s="27"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:4">
       <c r="D240" s="27"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:4">
       <c r="D241" s="27"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:4">
       <c r="D242" s="27"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:4">
       <c r="D243" s="27"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:4">
       <c r="D244" s="27"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:4">
       <c r="D245" s="27"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:4">
       <c r="D246" s="27"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:4">
       <c r="D247" s="27"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:4">
       <c r="D248" s="27"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:4">
       <c r="D249" s="27"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:4">
       <c r="D250" s="27"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:4">
       <c r="D251" s="27"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:4">
       <c r="D252" s="27"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:4">
       <c r="D253" s="27"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:4">
       <c r="D254" s="27"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:4">
       <c r="D255" s="27"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:4">
       <c r="D256" s="27"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:4">
       <c r="D257" s="27"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:4">
       <c r="D258" s="27"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:4">
       <c r="D259" s="27"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:4">
       <c r="D260" s="27"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:4">
       <c r="D261" s="27"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:4">
       <c r="D262" s="27"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:4">
       <c r="D263" s="27"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:4">
       <c r="D264" s="27"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:4">
       <c r="D265" s="27"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:4">
       <c r="D266" s="27"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:4">
       <c r="D267" s="27"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:4">
       <c r="D268" s="27"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:4">
       <c r="D269" s="27"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:4">
       <c r="D270" s="27"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:4">
       <c r="D271" s="27"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:4">
       <c r="D272" s="27"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:4">
       <c r="D273" s="27"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:4">
       <c r="D274" s="27"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:4">
       <c r="D275" s="27"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:4">
       <c r="D276" s="27"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:4">
       <c r="D277" s="27"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:4">
       <c r="D278" s="27"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:4">
       <c r="D279" s="27"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:4">
       <c r="D280" s="27"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:4">
       <c r="D281" s="27"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:4">
       <c r="D282" s="27"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:4">
       <c r="D283" s="27"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:4">
       <c r="D284" s="27"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:4">
       <c r="D285" s="27"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:4">
       <c r="D286" s="27"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:4">
       <c r="D287" s="27"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:4">
       <c r="D288" s="27"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:4">
       <c r="D289" s="27"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:4">
       <c r="D290" s="27"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:4">
       <c r="D291" s="27"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:4">
       <c r="D292" s="27"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:4">
       <c r="D293" s="27"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:4">
       <c r="D294" s="27"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:4">
       <c r="D295" s="27"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:4">
       <c r="D296" s="27"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:4">
       <c r="D297" s="27"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:4">
       <c r="D298" s="27"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:4">
       <c r="D299" s="27"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:4">
       <c r="D300" s="27"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:4">
       <c r="D301" s="27"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:4">
       <c r="D302" s="27"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:4">
       <c r="D303" s="27"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:4">
       <c r="D304" s="27"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:4">
       <c r="D305" s="27"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:4">
       <c r="D306" s="27"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:4">
       <c r="D307" s="27"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:4">
       <c r="D308" s="27"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:4">
       <c r="D309" s="27"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:4">
       <c r="D310" s="27"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:4">
       <c r="D311" s="27"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:4">
       <c r="D312" s="27"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:4">
       <c r="D313" s="27"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:4">
       <c r="D314" s="27"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:4">
       <c r="D315" s="27"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:4">
       <c r="D316" s="27"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:4">
       <c r="D317" s="27"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:4">
       <c r="D318" s="27"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:4">
       <c r="D319" s="27"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:4">
       <c r="D320" s="27"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:4">
       <c r="D321" s="27"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:4">
       <c r="D322" s="27"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:4">
       <c r="D323" s="27"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:4">
       <c r="D324" s="27"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:4">
       <c r="D325" s="27"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:4">
       <c r="D326" s="27"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:4">
       <c r="D327" s="27"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:4">
       <c r="D328" s="27"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:4">
       <c r="D329" s="27"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:4">
       <c r="D330" s="27"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:4">
       <c r="D331" s="27"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:4">
       <c r="D332" s="27"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:4">
       <c r="D333" s="27"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:4">
       <c r="D334" s="27"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:4">
       <c r="D335" s="27"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:4">
       <c r="D336" s="27"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:4">
       <c r="D337" s="27"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:4">
       <c r="D338" s="27"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:4">
       <c r="D339" s="27"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:4">
       <c r="D340" s="27"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:4">
       <c r="D341" s="27"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:4">
       <c r="D342" s="27"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:4">
       <c r="D343" s="27"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:4">
       <c r="D344" s="27"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:4">
       <c r="D345" s="27"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:4">
       <c r="D346" s="27"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:4">
       <c r="D347" s="27"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:4">
       <c r="D348" s="27"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:4">
       <c r="D349" s="27"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:4">
       <c r="D350" s="27"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:4">
       <c r="D351" s="27"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:4">
       <c r="D352" s="27"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:4">
       <c r="D353" s="27"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:4">
       <c r="D354" s="27"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:4">
       <c r="D355" s="27"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:4">
       <c r="D356" s="27"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:4">
       <c r="D357" s="27"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:4">
       <c r="D358" s="27"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:4">
       <c r="D359" s="27"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:4">
       <c r="D360" s="27"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:4">
       <c r="D361" s="27"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:4">
       <c r="D362" s="27"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:4">
       <c r="D363" s="27"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:4">
       <c r="D364" s="27"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:4">
       <c r="D365" s="27"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:4">
       <c r="D366" s="27"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:4">
       <c r="D367" s="27"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:4">
       <c r="D368" s="27"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:4">
       <c r="D369" s="27"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:4">
       <c r="D370" s="27"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:4">
       <c r="D371" s="27"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:4">
       <c r="D372" s="27"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:4">
       <c r="D373" s="27"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:4">
       <c r="D374" s="27"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:4">
       <c r="D375" s="27"/>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="4:4">
       <c r="D376" s="27"/>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D377" s="27"/>
-    </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="4:4">
+      <c r="D377" s="28"/>
+    </row>
+    <row r="378" spans="4:4">
       <c r="D378" s="28"/>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="4:4">
       <c r="D379" s="28"/>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="4:4">
       <c r="D380" s="28"/>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="4:4">
       <c r="D381" s="28"/>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="4:4">
       <c r="D382" s="28"/>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="4:4">
       <c r="D383" s="28"/>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="4:4">
       <c r="D384" s="28"/>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="4:4">
       <c r="D385" s="28"/>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="4:4">
       <c r="D386" s="28"/>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="4:4">
       <c r="D387" s="28"/>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="4:4">
       <c r="D388" s="28"/>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="4:4">
       <c r="D389" s="28"/>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="4:4">
       <c r="D390" s="28"/>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="4:4">
       <c r="D391" s="28"/>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="4:4">
       <c r="D392" s="28"/>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D393" s="28"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H99" xr:uid="{8615B3A7-0AB6-4DE7-8F17-61BC7FDB8889}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H99">
-      <sortCondition ref="E1:E99"/>
+  <autoFilter ref="A1:H98" xr:uid="{8615B3A7-0AB6-4DE7-8F17-61BC7FDB8889}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H98">
+      <sortCondition ref="E1:E98"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4556,811 +4532,624 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="31" customWidth="1"/>
-    <col min="6" max="25" width="8.81640625" style="31"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="31" customWidth="1"/>
+    <col min="6" max="25" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="33" customFormat="1">
       <c r="A1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" s="31" customFormat="1">
+      <c r="A3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="31" customFormat="1">
+      <c r="A5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="31" customFormat="1">
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="31" customFormat="1">
+      <c r="A7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="31" customFormat="1">
+      <c r="A8" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="31" customFormat="1">
+      <c r="A9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="31" customFormat="1">
+      <c r="A10" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="31" customFormat="1">
+      <c r="A11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="31" customFormat="1" ht="43.5">
+      <c r="A12" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A13" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="31" customFormat="1">
+      <c r="A14" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="31" customFormat="1">
+      <c r="A15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="31" customFormat="1">
+      <c r="A16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="31" customFormat="1">
+      <c r="A17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="31" customFormat="1">
+      <c r="A18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="31" customFormat="1">
+      <c r="A19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="31" customFormat="1">
+      <c r="A20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="21" spans="1:5" s="31" customFormat="1" ht="43.5">
+      <c r="A21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" s="31" customFormat="1" ht="57.95">
+      <c r="A25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="31" customFormat="1">
+      <c r="A26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A27" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="C27" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="31" customFormat="1">
+      <c r="A28" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="31" customFormat="1">
+      <c r="A29" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="31" customFormat="1">
+      <c r="A30" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A31" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A32" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="31" customFormat="1">
+      <c r="A33" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="57.95">
+      <c r="A34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-    </row>
-    <row r="6" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-    </row>
-    <row r="21" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E35" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C36" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:25" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-    </row>
-    <row r="25" spans="1:25" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-    </row>
-    <row r="31" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:25" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-    </row>
-    <row r="33" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-    </row>
-    <row r="34" spans="1:25" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" ht="29.1">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>173</v>
-      </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="72.599999999999994">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>193</v>
-      </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="72.599999999999994">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>194</v>
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="29.1">
       <c r="A40" t="s">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>195</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="29.1">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>202</v>
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="37" t="s">
         <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>208</v>
@@ -5382,16 +5171,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="25" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
@@ -5411,12 +5200,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B2&amp;" "&amp;CHAR(10)</f>
@@ -5436,12 +5225,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B3&amp;" "&amp;CHAR(10)</f>
@@ -5461,12 +5250,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B4&amp;" "&amp;CHAR(10)</f>
@@ -5474,12 +5263,12 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B5&amp;" "&amp;CHAR(10)</f>
@@ -5487,9 +5276,9 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>219</v>
@@ -5500,7 +5289,7 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="6"/>
     </row>
   </sheetData>
@@ -5510,12 +5299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5524,11 +5307,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003603A42B84B06847AFCE29FF3D1CE16D" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b60d9d15bd41b0ec0add6f67f5901e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff8eeb6-53bf-44bf-a224-fac977cd228b" xmlns:ns3="f3e578be-7961-41e8-91c9-b742ecb60a74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7609497fd93544ee3ce5f1e64fa8566c" ns2:_="" ns3:_="">
-    <xsd:import namespace="aff8eeb6-53bf-44bf-a224-fac977cd228b"/>
-    <xsd:import namespace="f3e578be-7961-41e8-91c9-b742ecb60a74"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d54ef3ca738e332da14dc10991e335">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2789f7211f2f0296d09b7bbdbdf6676" ns2:_="" ns3:_="">
+    <xsd:import namespace="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
+    <xsd:import namespace="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5537,13 +5320,16 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5551,7 +5337,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aff8eeb6-53bf-44bf-a224-fac977cd228b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5564,9 +5350,19 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
@@ -5586,16 +5382,18 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8ce9f98e-9ad5-43de-b59a-72d7e946aae0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3e578be-7961-41e8-91c9-b742ecb60a74" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33e70369-3675-4c3b-99e1-030eb9633bdf" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -5614,12 +5412,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{35b5c1b8-c26e-40e2-8d84-2ad1b1e5c9db}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="33e70369-3675-4c3b-99e1-030eb9633bdf">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5721,46 +5530,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aff8eeb6-53bf-44bf-a224-fac977cd228b"/>
-    <ds:schemaRef ds:uri="f3e578be-7961-41e8-91c9-b742ecb60a74"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722799C8-19D7-48DA-861A-B77FE73B4586}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722799C8-19D7-48DA-861A-B77FE73B4586}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8CA60CD-2286-4C35-8489-90021763D1F5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0222BFB4-B6DA-43AF-A0E8-804894096AD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aff8eeb6-53bf-44bf-a224-fac977cd228b"/>
-    <ds:schemaRef ds:uri="f3e578be-7961-41e8-91c9-b742ecb60a74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
 </file>
--- a/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
+++ b/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NCI-CBIIT-FNLCCDI/Shared Documents/CCDC (Data Catalog nee PODCat)/2-Executing/System Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF574EF1-14DE-4A74-958B-E0327342A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1DBD8EDA-8D16-48B6-ABF1-40CB9C71B357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7A6E1AF-0EC4-4C7D-87EE-5B3B82C44EC2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
+    <workbookView xWindow="32892" yWindow="792" windowWidth="32664" windowHeight="19500" firstSheet="3" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Resource Digest Submission" sheetId="6" r:id="rId1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
   <si>
     <t>Data Catalog Submission 
 Template Version Number</t>
@@ -628,6 +630,12 @@
   </si>
   <si>
     <t>Biomedical data repositories store, organize, validate, archive, preserve, and distribute data, in compliance with the FAIR Data Principles. It is a system for storing multiple research artifacts, provided at least some of the research artifacts contain Individual Research Data. A data repository often contains artifacts from multiple studies. Some data repositories accept research datasets irrespective of the structure of those datasets; other data repositories require all research datasets to conform to a standard reference model.</t>
+  </si>
+  <si>
+    <t>Analytic Tool</t>
+  </si>
+  <si>
+    <t>Any platform, methodology, framework, or other software designed for the use of and interpretation of biomedical research data.</t>
   </si>
   <si>
     <t>One, some, every, or all without specification. This term means that the statistic value applies to the set of all values in the digest partition for the data element summarized.</t>
@@ -1011,7 +1019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1299,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1310,8 +1318,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1406,12 +1414,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="18.600000000000001">
+    <row r="12" spans="1:15" ht="18">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30.95">
+    <row r="14" spans="1:15" ht="31.15">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1517,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select one option. " xr:uid="{636A3986-C7F7-4241-A118-AD72E422E78F}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$2:$A$6</xm:f>
+            <xm:f>Sheet1!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
@@ -1551,7 +1559,7 @@
     <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="46.5">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="46.9">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -4530,10 +4538,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4597,7 +4605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="4" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="31" customFormat="1" ht="43.5">
+    <row r="12" spans="1:5" s="31" customFormat="1" ht="43.15">
       <c r="A12" s="31" t="s">
         <v>140</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="13" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A13" s="31" t="s">
         <v>140</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="31" customFormat="1" ht="43.5">
+    <row r="21" spans="1:5" s="31" customFormat="1" ht="43.15">
       <c r="A21" s="31" t="s">
         <v>27</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="22" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A22" s="31" t="s">
         <v>27</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="23" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A23" s="31" t="s">
         <v>27</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="24" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A24" s="31" t="s">
         <v>27</v>
       </c>
@@ -4871,7 +4879,7 @@
       </c>
       <c r="D24" s="41"/>
     </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" ht="57.95">
+    <row r="25" spans="1:5" s="31" customFormat="1" ht="57.6">
       <c r="A25" s="31" t="s">
         <v>27</v>
       </c>
@@ -4905,7 +4913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A27" s="31" t="s">
         <v>176</v>
       </c>
@@ -4949,7 +4957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A31" s="31" t="s">
         <v>176</v>
       </c>
@@ -4960,7 +4968,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A32" s="31" t="s">
         <v>176</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" ht="57.95">
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="57.6">
       <c r="A34" s="31" t="s">
         <v>12</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A35" s="31" t="s">
         <v>12</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="31" customFormat="1" ht="29.1">
+    <row r="36" spans="1:5" s="31" customFormat="1" ht="28.9">
       <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29.1">
+    <row r="37" spans="1:5" ht="28.9">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5047,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" ht="72.599999999999994">
+    <row r="38" spans="1:5" ht="72">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -5051,7 +5059,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" ht="72.599999999999994">
+    <row r="39" spans="1:5" ht="72">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -5063,41 +5071,36 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" ht="29.1">
+    <row r="40" spans="1:5" ht="30.75">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="28.9">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" t="s">
-        <v>198</v>
-      </c>
+      <c r="E41"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>199</v>
@@ -5109,19 +5112,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29.1">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
         <v>202</v>
       </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:5" ht="28.9">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -5131,28 +5139,40 @@
       <c r="C44" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>205</v>
-      </c>
+      <c r="E44"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>36</v>
       </c>
       <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>207</v>
       </c>
       <c r="D45" t="s">
         <v>126</v>
       </c>
       <c r="E45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
         <v>208</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5188,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5188,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>18</v>
@@ -5213,21 +5233,21 @@
 </v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -5238,16 +5258,16 @@
 </v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5281,7 +5301,7 @@
         <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C6" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B6&amp;" "&amp;CHAR(10)</f>
@@ -5290,7 +5310,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5299,12 +5321,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5531,18 +5555,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722799C8-19D7-48DA-861A-B77FE73B4586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5550,5 +5572,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722799C8-19D7-48DA-861A-B77FE73B4586}"/>
 </file>
--- a/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
+++ b/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NCI-CBIIT-FNLCCDI/Shared Documents/CCDC (Data Catalog nee PODCat)/2-Executing/System Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1DBD8EDA-8D16-48B6-ABF1-40CB9C71B357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7A6E1AF-0EC4-4C7D-87EE-5B3B82C44EC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34F5CF1-09EF-4497-8964-B836931ECF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32892" yWindow="792" windowWidth="32664" windowHeight="19500" firstSheet="3" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
+    <workbookView xWindow="32892" yWindow="792" windowWidth="32664" windowHeight="19500" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Resource Digest Submission" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="224">
   <si>
     <t>Data Catalog Submission 
 Template Version Number</t>
@@ -680,9 +680,18 @@
     <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C25570</t>
   </si>
   <si>
+    <t>Epidemiologic</t>
+  </si>
+  <si>
+    <t>Relating to the study of the distribution and determinants of health-related states or events (including disease) in populations, and the application of this study to the control of diseases and other health problems</t>
+  </si>
+  <si>
     <t>Yes/No</t>
   </si>
   <si>
+    <t>Cell Lines</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -695,22 +704,19 @@
     <t>Update detected at resource site</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Data provided by resource owner</t>
+  </si>
+  <si>
+    <t>Updated provided by resource owner</t>
+  </si>
+  <si>
     <t>Knowledgebase</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Mix</t>
-  </si>
-  <si>
-    <t>Data provided by resource owner</t>
-  </si>
-  <si>
-    <t>Updated provided by resource owner</t>
-  </si>
-  <si>
-    <t>Cell Lines</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1025,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1307,7 +1313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1318,8 +1324,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1499,7 +1505,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="711" yWindow="709" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select all applicable options." xr:uid="{24609F91-DD67-4A61-931E-EC1E776B8001}">
           <x14:formula1>
-            <xm:f>Sheet1!$C$2:$C$6</xm:f>
+            <xm:f>Sheet1!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
@@ -4538,10 +4544,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4554,7 +4560,7 @@
     <col min="6" max="25" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="33" customFormat="1">
+    <row r="1" spans="1:5" s="33" customFormat="1" ht="15">
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
@@ -5175,8 +5181,19 @@
         <v>210</v>
       </c>
     </row>
+    <row r="47" spans="1:5" ht="30.75">
+      <c r="A47" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}"/>
+  <autoFilter ref="A1:E47" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -5188,7 +5205,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5208,7 +5225,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>18</v>
@@ -5222,116 +5239,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C2" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B2&amp;" "&amp;CHAR(10)</f>
+        <v xml:space="preserve">Cell Lines 
+</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="str">
+        <f>'Data Resource Digest Submission'!$C$15&amp;B3&amp;" "&amp;CHAR(10)</f>
+        <v xml:space="preserve">Clinical 
+</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'Data Resource Digest Submission'!$C$15&amp;B4&amp;" "&amp;CHAR(10)</f>
+        <v xml:space="preserve">Epidemiologic 
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Data Resource Digest Submission'!$C$15&amp;B5&amp;" "&amp;CHAR(10)</f>
         <v xml:space="preserve">Genomics/Omics 
 </v>
       </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="str">
-        <f>'Data Resource Digest Submission'!$C$15&amp;B3&amp;" "&amp;CHAR(10)</f>
+      <c r="C6" t="str">
+        <f>'Data Resource Digest Submission'!$C$15&amp;B6&amp;" "&amp;CHAR(10)</f>
         <v xml:space="preserve">Imaging 
 </v>
       </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="str">
-        <f>'Data Resource Digest Submission'!$C$15&amp;B4&amp;" "&amp;CHAR(10)</f>
-        <v xml:space="preserve">Clinical 
-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="str">
-        <f>'Data Resource Digest Submission'!$C$15&amp;B5&amp;" "&amp;CHAR(10)</f>
+      <c r="C7" t="str">
+        <f>'Data Resource Digest Submission'!$C$15&amp;B7&amp;" "&amp;CHAR(10)</f>
         <v xml:space="preserve">Xenograft 
 </v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" t="str">
-        <f>'Data Resource Digest Submission'!$C$15&amp;B6&amp;" "&amp;CHAR(10)</f>
-        <v xml:space="preserve">Cell Lines 
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d54ef3ca738e332da14dc10991e335">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2789f7211f2f0296d09b7bbdbdf6676" ns2:_="" ns3:_="">
     <xsd:import namespace="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
@@ -5554,6 +5571,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5564,11 +5592,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8CA60CD-2286-4C35-8489-90021763D1F5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8CA60CD-2286-4C35-8489-90021763D1F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
+++ b/Public/Childhood_Cancer_Data_Catalog_Submission_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NCI-CBIIT-FNLCCDI/Shared Documents/CCDC (Data Catalog nee PODCat)/2-Executing/System Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34F5CF1-09EF-4497-8964-B836931ECF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9A20E7-BF8D-4864-A084-1730E6915D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32892" yWindow="792" windowWidth="32664" windowHeight="19500" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A813E664-7740-450B-B9AA-D361BEDD0A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Resource Digest Submission" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Digest 1'!$A$1:$H$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Glossary!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Glossary!$A$1:$E$49</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,13 +44,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="230">
   <si>
     <t>Data Catalog Submission 
 Template Version Number</t>
   </si>
   <si>
-    <t>Version 3.6</t>
+    <t>Version 3.7</t>
   </si>
   <si>
     <t xml:space="preserve">This is a submission template for use in submitting Childhood Cancer Data Digests for the Childhood Cancer Data Catalog.  For instructions on filling out this workbooks and information on submitting dataset digests to the Childhood Cancer Data Catalog, contact Subhashini Jagu (subhashini.jagu@nih.gov) from NCI's Office of Data Sharing (ODS). </t>
@@ -467,6 +467,21 @@
     <t>https://www.cancer.gov/publications/dictionaries/cancer-terms/def/xenograft</t>
   </si>
   <si>
+    <t>Epidemiologic</t>
+  </si>
+  <si>
+    <t>Relating to the study of the distribution and determinants of health-related states or events (including disease) in populations, and the application of this study to the control of diseases and other health problems</t>
+  </si>
+  <si>
+    <t>Biospecimen</t>
+  </si>
+  <si>
+    <t>A sample of material, such as urine, blood, tissue, cells, DNA, RNA, or protein, from humans, animals, or plants. Biospecimens may be used for a laboratory test or stored in a biorepository to be used for research.</t>
+  </si>
+  <si>
+    <t>https://www.cancer.gov/publications/dictionaries/cancer-terms/def/biospecimen</t>
+  </si>
+  <si>
     <t>Dataset Structure</t>
   </si>
   <si>
@@ -626,7 +641,7 @@
     <t>A cancer registry is an information system designed for the collection, storage, and management of data on persons with cancer. An inventory of individuals or samples, usually focused on a specific diagnosis or condition. In some cases, public health laws require collecting information in registries about individuals who have a specific disease or condition. In other cases, individuals provide information about themselves to these registries voluntarily. Thus, a registry contains Individual Clinical Data, but not Individual Research Data.</t>
   </si>
   <si>
-    <t>Repository</t>
+    <t>Data Repository</t>
   </si>
   <si>
     <t>Biomedical data repositories store, organize, validate, archive, preserve, and distribute data, in compliance with the FAIR Data Principles. It is a system for storing multiple research artifacts, provided at least some of the research artifacts contain Individual Research Data. A data repository often contains artifacts from multiple studies. Some data repositories accept research datasets irrespective of the structure of those datasets; other data repositories require all research datasets to conform to a standard reference model.</t>
@@ -638,6 +653,15 @@
     <t>Any platform, methodology, framework, or other software designed for the use of and interpretation of biomedical research data.</t>
   </si>
   <si>
+    <t>Biorepository</t>
+  </si>
+  <si>
+    <t>A biorepository is a facility that acts as a library for biospecimens, allowing the biospecimens to be available for use in future research. A biospecimen may be from people, animals, or other living organisms. A biorepository will be involved in collecting, cataloguing, and storing biospecimens. The biorepository will also be involved in managing access to and distributing biospecimens to researchers. Some biorepositories store medical information associated with biospecimens.</t>
+  </si>
+  <si>
+    <t>https://toolkit.ncats.nih.gov/glossary/biorepository/</t>
+  </si>
+  <si>
     <t>One, some, every, or all without specification. This term means that the statistic value applies to the set of all values in the digest partition for the data element summarized.</t>
   </si>
   <si>
@@ -678,12 +702,6 @@
   </si>
   <si>
     <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C25570</t>
-  </si>
-  <si>
-    <t>Epidemiologic</t>
-  </si>
-  <si>
-    <t>Relating to the study of the distribution and determinants of health-related states or events (including disease) in populations, and the application of this study to the control of diseases and other health problems</t>
   </si>
   <si>
     <t>Yes/No</t>
@@ -1324,8 +1342,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1420,12 +1438,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="18.600000000000001">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.15">
+    <row r="14" spans="1:15" ht="30.95">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1523,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="711" yWindow="709" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select all applicable options." xr:uid="{24609F91-DD67-4A61-931E-EC1E776B8001}">
           <x14:formula1>
-            <xm:f>Sheet1!$C$2:$C$7</xm:f>
+            <xm:f>Sheet1!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
@@ -1523,7 +1541,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select one option. " xr:uid="{636A3986-C7F7-4241-A118-AD72E422E78F}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$2:$A$7</xm:f>
+            <xm:f>Sheet1!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
@@ -1565,7 +1583,7 @@
     <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="46.9">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="46.5">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -4544,10 +4562,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4560,7 +4578,7 @@
     <col min="6" max="25" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="33" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="33" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
@@ -4611,7 +4629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="31" customFormat="1" ht="28.9">
+    <row r="4" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
@@ -4656,106 +4674,107 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="31" customFormat="1">
+    <row r="7" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="31" customFormat="1">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A8" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>142</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="31" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="31" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="31" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="31" customFormat="1">
+      <c r="A12" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="31" customFormat="1">
+      <c r="A13" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="31" customFormat="1" ht="43.15">
-      <c r="A12" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="31" t="s">
+      <c r="C13" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="31" customFormat="1" ht="43.5">
+      <c r="A14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="31" customFormat="1" ht="28.9">
-      <c r="A13" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="C14" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A15" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="31" customFormat="1">
-      <c r="A14" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="31" customFormat="1">
-      <c r="A15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>153</v>
@@ -4763,7 +4782,7 @@
     </row>
     <row r="16" spans="1:5" s="31" customFormat="1">
       <c r="A16" s="31" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>154</v>
@@ -4771,39 +4790,33 @@
       <c r="C16" s="39" t="s">
         <v>155</v>
       </c>
+      <c r="D16" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="31" customFormat="1">
       <c r="A17" s="31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="31" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="31" customFormat="1">
       <c r="A18" s="31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>159</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="31" customFormat="1">
@@ -4811,9 +4824,15 @@
         <v>27</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="D19" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4822,47 +4841,47 @@
         <v>27</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="31" customFormat="1" ht="43.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="31" customFormat="1">
       <c r="A21" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" ht="28.9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="A22" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="31" customFormat="1" ht="28.9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="31" customFormat="1" ht="43.5">
       <c r="A23" s="31" t="s">
         <v>27</v>
       </c>
@@ -4873,277 +4892,277 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" ht="28.9">
+    <row r="24" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A24" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" ht="57.6">
+      <c r="D24" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A25" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="31" customFormat="1">
+    <row r="26" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" ht="28.9">
+        <v>176</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="57.95">
       <c r="A27" s="31" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="29.1">
       <c r="A29" s="31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="31" customFormat="1">
+      <c r="A31" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="31" customFormat="1">
+      <c r="A32" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="28.9">
-      <c r="A31" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="31" t="s">
+      <c r="C32" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A33" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C33" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A34" s="31" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" ht="28.9">
-      <c r="A32" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1">
-      <c r="A33" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="31" t="s">
+      <c r="C34" s="39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="31" customFormat="1">
+      <c r="A35" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" ht="57.6">
-      <c r="A34" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" ht="28.9">
-      <c r="A35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="31" t="s">
+      <c r="C35" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="31" customFormat="1" ht="28.9">
+    </row>
+    <row r="36" spans="1:5" s="31" customFormat="1" ht="57.95">
       <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.9">
-      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="31" customFormat="1" ht="29.1">
+      <c r="A37" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" ht="72">
-      <c r="A38" t="s">
+      <c r="B37" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29.1">
+      <c r="A38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" ht="72">
+      <c r="B38" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:5" ht="29.1">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" ht="30.75">
+    <row r="40" spans="1:5" ht="72.599999999999994">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" ht="28.9">
+    <row r="41" spans="1:5" ht="72.599999999999994">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="29.1">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" ht="57.95">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="28.9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="29.1">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E44"/>
     </row>
@@ -5152,16 +5171,16 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5169,7 +5188,7 @@
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>209</v>
@@ -5181,9 +5200,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30.75">
-      <c r="A47" s="31" t="s">
-        <v>13</v>
+    <row r="47" spans="1:5" ht="29.1">
+      <c r="A47" t="s">
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>211</v>
@@ -5191,9 +5210,48 @@
       <c r="C47" s="37" t="s">
         <v>212</v>
       </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E47" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}"/>
+  <autoFilter ref="A1:E49" xr:uid="{CD15778E-9931-4B41-A419-E999FE527953}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
+      <sortCondition ref="A1:A49"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -5202,10 +5260,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4516AE41-49F7-4A7D-8FA3-FAD1DC5E907C}">
   <sheetPr codeName="Sheet41"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5225,7 +5283,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>18</v>
@@ -5239,10 +5297,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C2" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B2&amp;" "&amp;CHAR(10)</f>
@@ -5250,21 +5308,21 @@
 </v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
         <v>128</v>
@@ -5275,24 +5333,24 @@
 </v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C4" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B4&amp;" "&amp;CHAR(10)</f>
@@ -5302,7 +5360,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
@@ -5315,7 +5373,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -5328,7 +5386,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -5336,6 +5394,19 @@
       <c r="C7" t="str">
         <f>'Data Resource Digest Submission'!$C$15&amp;B7&amp;" "&amp;CHAR(10)</f>
         <v xml:space="preserve">Xenograft 
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Data Resource Digest Submission'!$C$15&amp;B8&amp;" "&amp;CHAR(10)</f>
+        <v xml:space="preserve">Biospecimen 
 </v>
       </c>
     </row>
@@ -5349,8 +5420,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d54ef3ca738e332da14dc10991e335">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2789f7211f2f0296d09b7bbdbdf6676" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23634515e2fd75be5bfad7623104c70a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="305374924f9daf7f55b4f039a6f85780" ns2:_="" ns3:_="">
     <xsd:import namespace="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
     <xsd:import namespace="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
     <xsd:element name="properties">
@@ -5371,6 +5442,8 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5429,6 +5502,16 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33e70369-3675-4c3b-99e1-030eb9633bdf" elementFormDefault="qualified">
@@ -5572,6 +5655,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
@@ -5582,23 +5674,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8CA60CD-2286-4C35-8489-90021763D1F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2AA8D1-2DD3-4347-BA28-17A66FDC41D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722799C8-19D7-48DA-861A-B77FE73B4586}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722799C8-19D7-48DA-861A-B77FE73B4586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC26B0D-F1C9-4B83-9743-12952380C0A1}"/>
 </file>